--- a/BEMFSimulation/ExcelResults/LineVoltage500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage500.xlsx
@@ -408,13 +408,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B2">
-        <v>-32.51342086118972</v>
+        <v>-32.81949133013742</v>
       </c>
       <c r="C2">
-        <v>67.50687705638326</v>
+        <v>68.79027419891861</v>
       </c>
       <c r="D2">
-        <v>-34.99345619519354</v>
+        <v>-35.97078286878119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B3">
-        <v>-29.28668449050975</v>
+        <v>-30.10718095251143</v>
       </c>
       <c r="C3">
-        <v>65.5909664263126</v>
+        <v>67.67819749361755</v>
       </c>
       <c r="D3">
-        <v>-36.30428193580285</v>
+        <v>-37.57101654110612</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.001</v>
       </c>
       <c r="B4">
-        <v>-22.5764141492306</v>
+        <v>-23.95168968022395</v>
       </c>
       <c r="C4">
-        <v>61.63319050285161</v>
+        <v>64.1877621492394</v>
       </c>
       <c r="D4">
-        <v>-39.056776353621</v>
+        <v>-40.23607246901545</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B5">
-        <v>-13.76284470468624</v>
+        <v>-13.49794872977241</v>
       </c>
       <c r="C5">
-        <v>56.69603656541056</v>
+        <v>56.83574461326684</v>
       </c>
       <c r="D5">
-        <v>-42.93319186072432</v>
+        <v>-43.33779588349444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B6">
-        <v>-6.633453315257222</v>
+        <v>-6.397138881841585</v>
       </c>
       <c r="C6">
-        <v>53.37485360094331</v>
+        <v>55.03704547970511</v>
       </c>
       <c r="D6">
-        <v>-46.74140028568608</v>
+        <v>-48.63990659786353</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.002</v>
       </c>
       <c r="B7">
-        <v>-2.958035164800199</v>
+        <v>-3.22682075751521</v>
       </c>
       <c r="C7">
-        <v>51.68109837128176</v>
+        <v>53.44663385444954</v>
       </c>
       <c r="D7">
-        <v>-48.72306320648156</v>
+        <v>-50.21981309693433</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B8">
-        <v>-0.8062375796325512</v>
+        <v>-1.20691620222976</v>
       </c>
       <c r="C8">
-        <v>51.8981367925272</v>
+        <v>52.68337872947283</v>
       </c>
       <c r="D8">
-        <v>-51.09189921289465</v>
+        <v>-51.47646252724307</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B9">
-        <v>0.7661208265841424</v>
+        <v>0.9264667730182055</v>
       </c>
       <c r="C9">
-        <v>51.26756241022528</v>
+        <v>51.71683604126532</v>
       </c>
       <c r="D9">
-        <v>-52.03368323680942</v>
+        <v>-52.64330281428352</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.003</v>
       </c>
       <c r="B10">
-        <v>2.918649056455445</v>
+        <v>3.275817459683568</v>
       </c>
       <c r="C10">
-        <v>48.85639333671343</v>
+        <v>49.84025501928264</v>
       </c>
       <c r="D10">
-        <v>-51.77504239316887</v>
+        <v>-53.1160724789662</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B11">
-        <v>6.546485668124852</v>
+        <v>6.576489837372554</v>
       </c>
       <c r="C11">
-        <v>46.9114859697402</v>
+        <v>49.25719477857968</v>
       </c>
       <c r="D11">
-        <v>-53.45797163786505</v>
+        <v>-55.83368461595224</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.003666666666666667</v>
       </c>
       <c r="B12">
-        <v>13.70415791479745</v>
+        <v>14.09817060836469</v>
       </c>
       <c r="C12">
-        <v>43.07687227423436</v>
+        <v>43.52316370974464</v>
       </c>
       <c r="D12">
-        <v>-56.78103018903181</v>
+        <v>-57.62133431810932</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B13">
-        <v>22.43482435426422</v>
+        <v>23.36414950883353</v>
       </c>
       <c r="C13">
-        <v>39.17715829690247</v>
+        <v>39.71721599032191</v>
       </c>
       <c r="D13">
-        <v>-61.61198265116668</v>
+        <v>-63.08136549915544</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.004333333333333334</v>
       </c>
       <c r="B14">
-        <v>29.21483869135286</v>
+        <v>30.46043524718063</v>
       </c>
       <c r="C14">
-        <v>36.3026453540237</v>
+        <v>37.5483459441808</v>
       </c>
       <c r="D14">
-        <v>-65.51748404537656</v>
+        <v>-68.00878119136142</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.004666666666666667</v>
       </c>
       <c r="B15">
-        <v>32.42103236866357</v>
+        <v>32.59211529056141</v>
       </c>
       <c r="C15">
-        <v>34.8874636282918</v>
+        <v>35.76072890562242</v>
       </c>
       <c r="D15">
-        <v>-67.30849599695537</v>
+        <v>-68.35284419618384</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.005</v>
       </c>
       <c r="B16">
-        <v>34.53152499641954</v>
+        <v>34.959438964811</v>
       </c>
       <c r="C16">
-        <v>34.47637160699943</v>
+        <v>35.09815193556219</v>
       </c>
       <c r="D16">
-        <v>-69.00789660341897</v>
+        <v>-70.05759090037319</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.005333333333333333</v>
       </c>
       <c r="B17">
-        <v>34.91163155186008</v>
+        <v>35.75927659281056</v>
       </c>
       <c r="C17">
-        <v>32.52338977861918</v>
+        <v>32.84697394241122</v>
       </c>
       <c r="D17">
-        <v>-67.43502133047926</v>
+        <v>-68.60625053522179</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.005666666666666666</v>
       </c>
       <c r="B18">
-        <v>36.20318482719482</v>
+        <v>37.57190369718204</v>
       </c>
       <c r="C18">
-        <v>29.30520674486578</v>
+        <v>30.2344664598938</v>
       </c>
       <c r="D18">
-        <v>-65.50839157206059</v>
+        <v>-67.80637015707583</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.005999999999999999</v>
       </c>
       <c r="B19">
-        <v>39.11589870253018</v>
+        <v>40.39815369221459</v>
       </c>
       <c r="C19">
-        <v>22.65695659443272</v>
+        <v>23.97012114110579</v>
       </c>
       <c r="D19">
-        <v>-61.7728552969629</v>
+        <v>-64.36827483332038</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.006333333333333332</v>
       </c>
       <c r="B20">
-        <v>43.0554779139589</v>
+        <v>43.48042390697377</v>
       </c>
       <c r="C20">
-        <v>13.77560835759753</v>
+        <v>13.63974203371178</v>
       </c>
       <c r="D20">
-        <v>-56.83108627155644</v>
+        <v>-57.12016594068555</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.006666666666666665</v>
       </c>
       <c r="B21">
-        <v>46.85471478591027</v>
+        <v>48.81392717400645</v>
       </c>
       <c r="C21">
-        <v>6.611969414588666</v>
+        <v>6.519610954837869</v>
       </c>
       <c r="D21">
-        <v>-53.46668420049893</v>
+        <v>-55.33353812884432</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.006999999999999998</v>
       </c>
       <c r="B22">
-        <v>48.78546930956089</v>
+        <v>50.22684253482331</v>
       </c>
       <c r="C22">
-        <v>2.99268190520327</v>
+        <v>3.290511053245583</v>
       </c>
       <c r="D22">
-        <v>-51.77815121476416</v>
+        <v>-53.51735358806889</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.007333333333333331</v>
       </c>
       <c r="B23">
-        <v>51.1050387924681</v>
+        <v>51.57642316890146</v>
       </c>
       <c r="C23">
-        <v>0.8306192015779565</v>
+        <v>1.099511020001763</v>
       </c>
       <c r="D23">
-        <v>-51.93565799404605</v>
+        <v>-52.67593418890321</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.007666666666666665</v>
       </c>
       <c r="B24">
-        <v>51.99965654157054</v>
+        <v>52.89070997441838</v>
       </c>
       <c r="C24">
-        <v>-0.7802310030456425</v>
+        <v>-1.061410693818029</v>
       </c>
       <c r="D24">
-        <v>-51.2194255385249</v>
+        <v>-51.82929928060035</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.007999999999999998</v>
       </c>
       <c r="B25">
-        <v>51.84426275928333</v>
+        <v>53.24141703196823</v>
       </c>
       <c r="C25">
-        <v>-2.959816658047037</v>
+        <v>-3.26277484510036</v>
       </c>
       <c r="D25">
-        <v>-48.88444610123629</v>
+        <v>-49.97864218686787</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.008333333333333331</v>
       </c>
       <c r="B26">
-        <v>53.5653657314427</v>
+        <v>55.6895657943634</v>
       </c>
       <c r="C26">
-        <v>-6.557940056559435</v>
+        <v>-6.420741215542384</v>
       </c>
       <c r="D26">
-        <v>-47.00742567488327</v>
+        <v>-49.26882457882101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.008666666666666665</v>
       </c>
       <c r="B27">
-        <v>56.90657575813122</v>
+        <v>57.37779371578723</v>
       </c>
       <c r="C27">
-        <v>-13.69976121843688</v>
+        <v>-13.87551748951083</v>
       </c>
       <c r="D27">
-        <v>-43.20681453969434</v>
+        <v>-43.50227622627641</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.008999999999999998</v>
       </c>
       <c r="B28">
-        <v>61.82824294058815</v>
+        <v>63.17826815302573</v>
       </c>
       <c r="C28">
-        <v>-22.50612130235819</v>
+        <v>-23.40476939807622</v>
       </c>
       <c r="D28">
-        <v>-39.32212163822997</v>
+        <v>-39.77349875494951</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.009333333333333331</v>
       </c>
       <c r="B29">
-        <v>65.63795648553435</v>
+        <v>68.28351396496069</v>
       </c>
       <c r="C29">
-        <v>-29.28933132863763</v>
+        <v>-30.5852415007342</v>
       </c>
       <c r="D29">
-        <v>-36.34862515689672</v>
+        <v>-37.6982724642265</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.009666666666666664</v>
       </c>
       <c r="B30">
-        <v>67.30809431583123</v>
+        <v>68.58759264091401</v>
       </c>
       <c r="C30">
-        <v>-32.45982775851658</v>
+        <v>-32.68873653971882</v>
       </c>
       <c r="D30">
-        <v>-34.84826655731464</v>
+        <v>-35.89885610119519</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.009999999999999997</v>
       </c>
       <c r="B31">
-        <v>68.95377527936445</v>
+        <v>69.91040219518121</v>
       </c>
       <c r="C31">
-        <v>-34.51969440358416</v>
+        <v>-34.94752166817179</v>
       </c>
       <c r="D31">
-        <v>-34.43408087578029</v>
+        <v>-34.96288052700942</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.01033333333333333</v>
       </c>
       <c r="B32">
-        <v>67.38371029658911</v>
+        <v>68.18110527408922</v>
       </c>
       <c r="C32">
-        <v>-34.91271535119807</v>
+        <v>-35.6607686612186</v>
       </c>
       <c r="D32">
-        <v>-32.47099494539105</v>
+        <v>-32.52033661287062</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.01066666666666666</v>
       </c>
       <c r="B33">
-        <v>65.47116249211905</v>
+        <v>67.61407325785822</v>
       </c>
       <c r="C33">
-        <v>-36.22290216383275</v>
+        <v>-37.50110354085525</v>
       </c>
       <c r="D33">
-        <v>-29.2482603282863</v>
+        <v>-30.11296971700297</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.011</v>
       </c>
       <c r="B34">
-        <v>61.72202513906971</v>
+        <v>64.41893022039052</v>
       </c>
       <c r="C34">
-        <v>-39.09641956852179</v>
+        <v>-40.33898033870828</v>
       </c>
       <c r="D34">
-        <v>-22.62560557054793</v>
+        <v>-24.07994988168225</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.01133333333333333</v>
       </c>
       <c r="B35">
-        <v>56.7945807842264</v>
+        <v>56.98976393632545</v>
       </c>
       <c r="C35">
-        <v>-43.01474374357615</v>
+        <v>-43.3218953128655</v>
       </c>
       <c r="D35">
-        <v>-13.77983704065025</v>
+        <v>-13.66786862345995</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.01166666666666666</v>
       </c>
       <c r="B36">
-        <v>53.45306048557505</v>
+        <v>55.0820765700571</v>
       </c>
       <c r="C36">
-        <v>-46.81333067122254</v>
+        <v>-48.66180036283789</v>
       </c>
       <c r="D36">
-        <v>-6.639729814352512</v>
+        <v>-6.420276207219215</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.012</v>
       </c>
       <c r="B37">
-        <v>51.79835029481119</v>
+        <v>53.4486509855181</v>
       </c>
       <c r="C37">
-        <v>-48.81759579013075</v>
+        <v>-50.27277756627202</v>
       </c>
       <c r="D37">
-        <v>-2.980754504680439</v>
+        <v>-3.175873419246081</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.01233333333333333</v>
       </c>
       <c r="B38">
-        <v>51.9501828363999</v>
+        <v>52.67460843259221</v>
       </c>
       <c r="C38">
-        <v>-51.13959741504729</v>
+        <v>-51.53524438519263</v>
       </c>
       <c r="D38">
-        <v>-0.81058542135262</v>
+        <v>-1.139364047399585</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.01266666666666666</v>
       </c>
       <c r="B39">
-        <v>51.28630713060535</v>
+        <v>51.83844836126357</v>
       </c>
       <c r="C39">
-        <v>-52.08795063815598</v>
+        <v>-52.79831845506985</v>
       </c>
       <c r="D39">
-        <v>0.8016435075506294</v>
+        <v>0.9598700938062699</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.01299999999999999</v>
       </c>
       <c r="B40">
-        <v>48.82115226493716</v>
+        <v>49.94230162833639</v>
       </c>
       <c r="C40">
-        <v>-51.7713400755066</v>
+        <v>-53.17818233414374</v>
       </c>
       <c r="D40">
-        <v>2.950187810569437</v>
+        <v>3.235880705807354</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.01333333333333333</v>
       </c>
       <c r="B41">
-        <v>46.9329779884431</v>
+        <v>49.42331163664468</v>
       </c>
       <c r="C41">
-        <v>-53.48091918197432</v>
+        <v>-55.92784734827913</v>
       </c>
       <c r="D41">
-        <v>6.547941193531221</v>
+        <v>6.504535711634452</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.01366666666666666</v>
       </c>
       <c r="B42">
-        <v>43.13993349067191</v>
+        <v>43.52978021793584</v>
       </c>
       <c r="C42">
-        <v>-56.82804601433214</v>
+        <v>-57.5867029899878</v>
       </c>
       <c r="D42">
-        <v>13.68811252366024</v>
+        <v>14.05692277205196</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.01399999999999999</v>
       </c>
       <c r="B43">
-        <v>39.22757917500158</v>
+        <v>39.78560337080998</v>
       </c>
       <c r="C43">
-        <v>-61.7069441767373</v>
+        <v>-63.27543200582879</v>
       </c>
       <c r="D43">
-        <v>22.47936500173571</v>
+        <v>23.48982863501881</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.01433333333333333</v>
       </c>
       <c r="B44">
-        <v>36.33656961961083</v>
+        <v>37.67850039906595</v>
       </c>
       <c r="C44">
-        <v>-65.63108453457572</v>
+        <v>-68.24669530360296</v>
       </c>
       <c r="D44">
-        <v>29.29451491496489</v>
+        <v>30.56819490453701</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.01466666666666666</v>
       </c>
       <c r="B45">
-        <v>34.92503287109171</v>
+        <v>35.73194275597724</v>
       </c>
       <c r="C45">
-        <v>-67.44382371290143</v>
+        <v>-68.22823719648403</v>
       </c>
       <c r="D45">
-        <v>32.51879084180973</v>
+        <v>32.49629444050679</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.01499999999999999</v>
       </c>
       <c r="B46">
-        <v>34.53533287368259</v>
+        <v>35.20032557889103</v>
       </c>
       <c r="C46">
-        <v>-69.15485115829995</v>
+        <v>-70.34216841990758</v>
       </c>
       <c r="D46">
-        <v>34.61951828461736</v>
+        <v>35.14184284101655</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.01533333333333333</v>
       </c>
       <c r="B47">
-        <v>32.50902310901512</v>
+        <v>32.81589170146156</v>
       </c>
       <c r="C47">
-        <v>-67.50287713369306</v>
+        <v>-68.78808036306123</v>
       </c>
       <c r="D47">
-        <v>34.99385402467794</v>
+        <v>35.97218866159967</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.01566666666666666</v>
       </c>
       <c r="B48">
-        <v>29.28102396831948</v>
+        <v>30.10319875942285</v>
       </c>
       <c r="C48">
-        <v>-65.58865573301384</v>
+        <v>-67.67814291845966</v>
       </c>
       <c r="D48">
-        <v>36.30763176469435</v>
+        <v>37.5749441590368</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.01599999999999999</v>
       </c>
       <c r="B49">
-        <v>22.56341135656556</v>
+        <v>23.93615964863157</v>
       </c>
       <c r="C49">
-        <v>-61.62520410941057</v>
+        <v>-64.17549701191291</v>
       </c>
       <c r="D49">
-        <v>39.06179275284502</v>
+        <v>40.23933736328134</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.01633333333333333</v>
       </c>
       <c r="B50">
-        <v>13.75105125868938</v>
+        <v>13.48554646793544</v>
       </c>
       <c r="C50">
-        <v>-56.68988129145076</v>
+        <v>-56.83024243312981</v>
       </c>
       <c r="D50">
-        <v>42.93883003276139</v>
+        <v>43.34469596519437</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.01666666666666666</v>
       </c>
       <c r="B51">
-        <v>6.625585766509651</v>
+        <v>6.389480597668722</v>
       </c>
       <c r="C51">
-        <v>-53.3715815967583</v>
+        <v>-55.03552051055179</v>
       </c>
       <c r="D51">
-        <v>46.74599583024865</v>
+        <v>48.64603991288307</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.017</v>
       </c>
       <c r="B52">
-        <v>2.954384941349447</v>
+        <v>3.224222775375653</v>
       </c>
       <c r="C52">
-        <v>-51.67978045068504</v>
+        <v>-53.44369485136004</v>
       </c>
       <c r="D52">
-        <v>48.72539550933559</v>
+        <v>50.21947207598439</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.01733333333333333</v>
       </c>
       <c r="B53">
-        <v>0.8037414776395373</v>
+        <v>1.204071653991349</v>
       </c>
       <c r="C53">
-        <v>-51.89912516964564</v>
+        <v>-52.68417447060615</v>
       </c>
       <c r="D53">
-        <v>51.0953836920061</v>
+        <v>51.4801028166148</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.01766666666666667</v>
       </c>
       <c r="B54">
-        <v>-0.768569642559477</v>
+        <v>-0.929721622977965</v>
       </c>
       <c r="C54">
-        <v>-51.26455593438408</v>
+        <v>-51.71352598882639</v>
       </c>
       <c r="D54">
-        <v>52.03312557694355</v>
+        <v>52.64324761180436</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.018</v>
       </c>
       <c r="B55">
-        <v>-2.922351349690933</v>
+        <v>-3.279868613841748</v>
       </c>
       <c r="C55">
-        <v>-48.85384617375678</v>
+        <v>-49.83808701759217</v>
       </c>
       <c r="D55">
-        <v>51.77619752344771</v>
+        <v>53.11795563143392</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.01833333333333334</v>
       </c>
       <c r="B56">
-        <v>-6.554214657111674</v>
+        <v>-6.583657875391459</v>
       </c>
       <c r="C56">
-        <v>-46.9067554624059</v>
+        <v>-49.2539094777574</v>
       </c>
       <c r="D56">
-        <v>53.46097011951757</v>
+        <v>55.83756735314886</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.01866666666666667</v>
       </c>
       <c r="B57">
-        <v>-13.71598683864052</v>
+        <v>-14.11035611626414</v>
       </c>
       <c r="C57">
-        <v>-43.0713637449321</v>
+        <v>-43.51448144465272</v>
       </c>
       <c r="D57">
-        <v>56.78735058357262</v>
+        <v>57.62483756091686</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.01900000000000001</v>
       </c>
       <c r="B58">
-        <v>-22.44768218097423</v>
+        <v>-23.37793028248485</v>
       </c>
       <c r="C58">
-        <v>-39.17180261788838</v>
+        <v>-39.71368734819261</v>
       </c>
       <c r="D58">
-        <v>61.61948479886262</v>
+        <v>63.09161763067745</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.01933333333333334</v>
       </c>
       <c r="B59">
-        <v>-29.22096349036869</v>
+        <v>-30.4657968648274</v>
       </c>
       <c r="C59">
-        <v>-36.29968276769677</v>
+        <v>-37.54537898364937</v>
       </c>
       <c r="D59">
-        <v>65.52064625806545</v>
+        <v>68.01117584847677</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.01966666666666668</v>
       </c>
       <c r="B60">
-        <v>-32.42498313678968</v>
+        <v>-32.59548152854023</v>
       </c>
       <c r="C60">
-        <v>-34.88634873110423</v>
+        <v>-35.75909799613038</v>
       </c>
       <c r="D60">
-        <v>67.31133186789393</v>
+        <v>68.35457952467061</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.02000000000000001</v>
       </c>
       <c r="B61">
-        <v>-34.53298254749942</v>
+        <v>-34.96162631182635</v>
       </c>
       <c r="C61">
-        <v>-34.47523218352457</v>
+        <v>-35.09625798673584</v>
       </c>
       <c r="D61">
-        <v>69.00821473102398</v>
+        <v>70.05788429856219</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.02033333333333335</v>
       </c>
       <c r="B62">
-        <v>-34.91238488287765</v>
+        <v>-35.76052633512906</v>
       </c>
       <c r="C62">
-        <v>-32.51937477348183</v>
+        <v>-32.84339385291938</v>
       </c>
       <c r="D62">
-        <v>67.43175965635947</v>
+        <v>68.60392018804845</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.02066666666666668</v>
       </c>
       <c r="B63">
-        <v>-36.20625738152684</v>
+        <v>-37.57639357138087</v>
       </c>
       <c r="C63">
-        <v>-29.29929829716198</v>
+        <v>-30.23065800980541</v>
       </c>
       <c r="D63">
-        <v>65.50555567868881</v>
+        <v>67.80705158118627</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.02100000000000002</v>
       </c>
       <c r="B64">
-        <v>-39.12132605874368</v>
+        <v>-40.401451118095</v>
       </c>
       <c r="C64">
-        <v>-22.64409448904834</v>
+        <v>-23.95444611133565</v>
       </c>
       <c r="D64">
-        <v>61.76542054779201</v>
+        <v>64.35589722943064</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.02133333333333335</v>
       </c>
       <c r="B65">
-        <v>-43.06114243291464</v>
+        <v>-43.4872927758887</v>
       </c>
       <c r="C65">
-        <v>-13.7635994504328</v>
+        <v>-13.62737285582532</v>
       </c>
       <c r="D65">
-        <v>56.82474188334744</v>
+        <v>57.11466563171403</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.02166666666666668</v>
       </c>
       <c r="B66">
-        <v>-46.85903638592764</v>
+        <v>-48.82022047426153</v>
       </c>
       <c r="C66">
-        <v>-6.604177982678094</v>
+        <v>-6.512082124161404</v>
       </c>
       <c r="D66">
-        <v>53.46321436860573</v>
+        <v>55.33230259842293</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.02200000000000002</v>
       </c>
       <c r="B67">
-        <v>-48.78803450328135</v>
+        <v>-50.22659884885138</v>
       </c>
       <c r="C67">
-        <v>-2.989056826957022</v>
+        <v>-3.287614533143415</v>
       </c>
       <c r="D67">
-        <v>51.77709133023836</v>
+        <v>53.51421338199479</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.02233333333333335</v>
       </c>
       <c r="B68">
-        <v>-51.10830118484434</v>
+        <v>-51.57987084767916</v>
       </c>
       <c r="C68">
-        <v>-0.82806751580544</v>
+        <v>-1.096565839924647</v>
       </c>
       <c r="D68">
-        <v>51.93636870064978</v>
+        <v>52.6764366876038</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.02266666666666669</v>
       </c>
       <c r="B69">
-        <v>-51.99916841922296</v>
+        <v>-52.89065826060349</v>
       </c>
       <c r="C69">
-        <v>0.7827250173473033</v>
+        <v>1.064612006808627</v>
       </c>
       <c r="D69">
-        <v>51.21644340187566</v>
+        <v>51.82604625379486</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.02300000000000002</v>
       </c>
       <c r="B70">
-        <v>-51.84541264348088</v>
+        <v>-53.24303346870731</v>
       </c>
       <c r="C70">
-        <v>2.96355982343227</v>
+        <v>3.26653410735039</v>
       </c>
       <c r="D70">
-        <v>48.88185282004861</v>
+        <v>49.97649936135692</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.02333333333333336</v>
       </c>
       <c r="B71">
-        <v>-53.56846782880521</v>
+        <v>-55.6933993324085</v>
       </c>
       <c r="C71">
-        <v>6.565599116723941</v>
+        <v>6.427750553256592</v>
       </c>
       <c r="D71">
-        <v>47.00286871208127</v>
+        <v>49.2656487791519</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.02366666666666669</v>
       </c>
       <c r="B72">
-        <v>-56.91297305213784</v>
+        <v>-57.38097707774377</v>
       </c>
       <c r="C72">
-        <v>13.71166705434437</v>
+        <v>13.88776698065267</v>
       </c>
       <c r="D72">
-        <v>43.20130599779346</v>
+        <v>43.4932100970911</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.02400000000000003</v>
       </c>
       <c r="B73">
-        <v>-61.83597846835401</v>
+        <v>-63.18918272758593</v>
       </c>
       <c r="C73">
-        <v>22.51905975118826</v>
+        <v>23.41894182660898</v>
       </c>
       <c r="D73">
-        <v>39.31691871716576</v>
+        <v>39.77024090097694</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.02433333333333336</v>
       </c>
       <c r="B74">
-        <v>-65.64020847061968</v>
+        <v>-68.28593709990801</v>
       </c>
       <c r="C74">
-        <v>29.2951749102939</v>
+        <v>30.59058551923233</v>
       </c>
       <c r="D74">
-        <v>36.34503356032577</v>
+        <v>37.69535158067568</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.0246666666666667</v>
       </c>
       <c r="B75">
-        <v>-67.31164831110343</v>
+        <v>-68.58886589093783</v>
       </c>
       <c r="C75">
-        <v>32.4640999212492</v>
+        <v>32.69191305198764</v>
       </c>
       <c r="D75">
-        <v>34.84754838985423</v>
+        <v>35.8969528389502</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.02500000000000003</v>
       </c>
       <c r="B76">
-        <v>-68.95389837109892</v>
+        <v>-69.910529929267</v>
       </c>
       <c r="C76">
-        <v>34.5210739156437</v>
+        <v>34.94972945169681</v>
       </c>
       <c r="D76">
-        <v>34.43282445545522</v>
+        <v>34.96080047757019</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.02533333333333337</v>
       </c>
       <c r="B77">
-        <v>-67.37982581816036</v>
+        <v>-68.17858384459279</v>
       </c>
       <c r="C77">
-        <v>34.91311476387392</v>
+        <v>35.66197267732604</v>
       </c>
       <c r="D77">
-        <v>32.46671105428644</v>
+        <v>32.51661116726676</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.0256666666666667</v>
       </c>
       <c r="B78">
-        <v>-65.46899168451124</v>
+        <v>-67.61467777779797</v>
       </c>
       <c r="C78">
-        <v>36.22634036717097</v>
+        <v>37.50520139389435</v>
       </c>
       <c r="D78">
-        <v>29.24265131734026</v>
+        <v>30.10947638390361</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.02600000000000004</v>
       </c>
       <c r="B79">
-        <v>-61.71436869953675</v>
+        <v>-64.4073011547214</v>
       </c>
       <c r="C79">
-        <v>39.10170633160431</v>
+        <v>40.34260866918038</v>
       </c>
       <c r="D79">
-        <v>22.61266236793244</v>
+        <v>24.06469248554102</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.02633333333333337</v>
       </c>
       <c r="B80">
-        <v>-56.78836794517606</v>
+        <v>-56.98373104944442</v>
       </c>
       <c r="C80">
-        <v>43.02037542963041</v>
+        <v>43.32862235224638</v>
       </c>
       <c r="D80">
-        <v>13.76799251554566</v>
+        <v>13.65510869719804</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.02666666666666671</v>
       </c>
       <c r="B81">
-        <v>-53.44935345481343</v>
+        <v>-55.08108994631414</v>
       </c>
       <c r="C81">
-        <v>46.81753961111947</v>
+        <v>48.66848132687012</v>
       </c>
       <c r="D81">
-        <v>6.631813843693962</v>
+        <v>6.412608619444022</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.02700000000000004</v>
       </c>
       <c r="B82">
-        <v>-51.79724840845118</v>
+        <v>-53.44530735883986</v>
       </c>
       <c r="C82">
-        <v>48.82008845473079</v>
+        <v>50.27222698913495</v>
       </c>
       <c r="D82">
-        <v>2.977159953720388</v>
+        <v>3.173080369704916</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.02733333333333338</v>
       </c>
       <c r="B83">
-        <v>-51.95071835368807</v>
+        <v>-52.67544973156316</v>
       </c>
       <c r="C83">
-        <v>51.14267817779768</v>
+        <v>51.53880889166113</v>
       </c>
       <c r="D83">
-        <v>0.8080401758903974</v>
+        <v>1.136640839902032</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.02766666666666671</v>
       </c>
       <c r="B84">
-        <v>-51.28331149290962</v>
+        <v>-51.83507351613869</v>
       </c>
       <c r="C84">
-        <v>52.08744025810726</v>
+        <v>52.79812108655749</v>
       </c>
       <c r="D84">
-        <v>-0.8041287651976425</v>
+        <v>-0.9630475704187909</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.02800000000000005</v>
       </c>
       <c r="B85">
-        <v>-48.81878910099429</v>
+        <v>-49.94031062401028</v>
       </c>
       <c r="C85">
-        <v>51.77266101285659</v>
+        <v>53.1801393153319</v>
       </c>
       <c r="D85">
-        <v>-2.953871911862302</v>
+        <v>-3.239828691321623</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.02833333333333338</v>
       </c>
       <c r="B86">
-        <v>-46.92863663041969</v>
+        <v>-49.42006445146903</v>
       </c>
       <c r="C86">
-        <v>53.48436046918943</v>
+        <v>55.93170665690386</v>
       </c>
       <c r="D86">
-        <v>-6.555723838769733</v>
+        <v>-6.51164220543482</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.02866666666666672</v>
       </c>
       <c r="B87">
-        <v>-43.13416972701808</v>
+        <v>-43.52096743378902</v>
       </c>
       <c r="C87">
-        <v>56.83413597428904</v>
+        <v>57.59036846038099</v>
       </c>
       <c r="D87">
-        <v>-13.69996624727096</v>
+        <v>-14.06940102659196</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.02900000000000005</v>
       </c>
       <c r="B88">
-        <v>-39.22246181964724</v>
+        <v>-39.78216870083967</v>
       </c>
       <c r="C88">
-        <v>61.71471493974273</v>
+        <v>63.28592962201692</v>
       </c>
       <c r="D88">
-        <v>-22.49225312009549</v>
+        <v>-23.50376092117725</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.02933333333333338</v>
       </c>
       <c r="B89">
-        <v>-36.33325454473849</v>
+        <v>-37.67532198893021</v>
       </c>
       <c r="C89">
-        <v>65.63377555274941</v>
+        <v>68.248522410428</v>
       </c>
       <c r="D89">
-        <v>-29.30052100801092</v>
+        <v>-30.5732004214978</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.02966666666666672</v>
       </c>
       <c r="B90">
-        <v>-34.92418637141053</v>
+        <v>-35.73039999350044</v>
       </c>
       <c r="C90">
-        <v>67.44710837686802</v>
+        <v>68.23017778363517</v>
       </c>
       <c r="D90">
-        <v>-32.52292200545748</v>
+        <v>-32.49977779013473</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage500.xlsx
@@ -408,13 +408,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B2">
-        <v>-32.81949133013742</v>
+        <v>-33.29703661955223</v>
       </c>
       <c r="C2">
-        <v>68.79027419891861</v>
+        <v>69.17297541372561</v>
       </c>
       <c r="D2">
-        <v>-35.97078286878119</v>
+        <v>-35.87593879417338</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B3">
-        <v>-30.10718095251143</v>
+        <v>-30.04118863496767</v>
       </c>
       <c r="C3">
-        <v>67.67819749361755</v>
+        <v>67.30614678626044</v>
       </c>
       <c r="D3">
-        <v>-37.57101654110612</v>
+        <v>-37.26495815129277</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.001</v>
       </c>
       <c r="B4">
-        <v>-23.95168968022395</v>
+        <v>-23.17172547772438</v>
       </c>
       <c r="C4">
-        <v>64.1877621492394</v>
+        <v>63.27943342379301</v>
       </c>
       <c r="D4">
-        <v>-40.23607246901545</v>
+        <v>-40.10770794606864</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B5">
-        <v>-13.49794872977241</v>
+        <v>-14.08970526759853</v>
       </c>
       <c r="C5">
-        <v>56.83574461326684</v>
+        <v>58.07806339333817</v>
       </c>
       <c r="D5">
-        <v>-43.33779588349444</v>
+        <v>-43.98835812573963</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B6">
-        <v>-6.397138881841585</v>
+        <v>-6.79373345190762</v>
       </c>
       <c r="C6">
-        <v>55.03704547970511</v>
+        <v>54.74503214460375</v>
       </c>
       <c r="D6">
-        <v>-48.63990659786353</v>
+        <v>-47.95129869269613</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.002</v>
       </c>
       <c r="B7">
-        <v>-3.22682075751521</v>
+        <v>-3.037827369491223</v>
       </c>
       <c r="C7">
-        <v>53.44663385444954</v>
+        <v>52.91712223266798</v>
       </c>
       <c r="D7">
-        <v>-50.21981309693433</v>
+        <v>-49.87929486317675</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B8">
-        <v>-1.20691620222976</v>
+        <v>-0.8412882358449529</v>
       </c>
       <c r="C8">
-        <v>52.68337872947283</v>
+        <v>53.36857692693285</v>
       </c>
       <c r="D8">
-        <v>-51.47646252724307</v>
+        <v>-52.52728869108789</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B9">
-        <v>0.9264667730182055</v>
+        <v>0.7939241996789157</v>
       </c>
       <c r="C9">
-        <v>51.71683604126532</v>
+        <v>52.58756982620384</v>
       </c>
       <c r="D9">
-        <v>-52.64330281428352</v>
+        <v>-53.38149402588276</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.003</v>
       </c>
       <c r="B10">
-        <v>3.275817459683568</v>
+        <v>3.024630858568869</v>
       </c>
       <c r="C10">
-        <v>49.84025501928264</v>
+        <v>50.0708543541263</v>
       </c>
       <c r="D10">
-        <v>-53.1160724789662</v>
+        <v>-53.09548521269517</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B11">
-        <v>6.576489837372554</v>
+        <v>6.726192829346404</v>
       </c>
       <c r="C11">
-        <v>49.25719477857968</v>
+        <v>48.16551971956045</v>
       </c>
       <c r="D11">
-        <v>-55.83368461595224</v>
+        <v>-54.89171254890685</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.003666666666666667</v>
       </c>
       <c r="B12">
-        <v>14.09817060836469</v>
+        <v>14.07631066825274</v>
       </c>
       <c r="C12">
-        <v>43.52316370974464</v>
+        <v>44.13682739132836</v>
       </c>
       <c r="D12">
-        <v>-57.62133431810932</v>
+        <v>-58.2131380595811</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B13">
-        <v>23.36414950883353</v>
+        <v>22.99511096962345</v>
       </c>
       <c r="C13">
-        <v>39.71721599032191</v>
+        <v>40.17056230661812</v>
       </c>
       <c r="D13">
-        <v>-63.08136549915544</v>
+        <v>-63.16567327624158</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.004333333333333334</v>
       </c>
       <c r="B14">
-        <v>30.46043524718063</v>
+        <v>29.95787014755277</v>
       </c>
       <c r="C14">
-        <v>37.5483459441808</v>
+        <v>37.21981632100799</v>
       </c>
       <c r="D14">
-        <v>-68.00878119136142</v>
+        <v>-67.17768646856075</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.004666666666666667</v>
       </c>
       <c r="B15">
-        <v>32.59211529056141</v>
+        <v>33.23833130118179</v>
       </c>
       <c r="C15">
-        <v>35.76072890562242</v>
+        <v>35.75088688987822</v>
       </c>
       <c r="D15">
-        <v>-68.35284419618384</v>
+        <v>-68.98921819106</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.005</v>
       </c>
       <c r="B16">
-        <v>34.959438964811</v>
+        <v>35.47338959752046</v>
       </c>
       <c r="C16">
-        <v>35.09815193556219</v>
+        <v>35.43275055087614</v>
       </c>
       <c r="D16">
-        <v>-70.05759090037319</v>
+        <v>-70.9061401483966</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.005333333333333333</v>
       </c>
       <c r="B17">
-        <v>35.75927659281056</v>
+        <v>35.76824059844136</v>
       </c>
       <c r="C17">
-        <v>32.84697394241122</v>
+        <v>33.28353018655625</v>
       </c>
       <c r="D17">
-        <v>-68.60625053522179</v>
+        <v>-69.05177078499761</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.005666666666666666</v>
       </c>
       <c r="B18">
-        <v>37.57190369718204</v>
+        <v>37.16126042754793</v>
       </c>
       <c r="C18">
-        <v>30.2344664598938</v>
+        <v>30.06187395016201</v>
       </c>
       <c r="D18">
-        <v>-67.80637015707583</v>
+        <v>-67.22313437770995</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.005999999999999999</v>
       </c>
       <c r="B19">
-        <v>40.39815369221459</v>
+        <v>40.17114387750209</v>
       </c>
       <c r="C19">
-        <v>23.97012114110579</v>
+        <v>23.26327964126276</v>
       </c>
       <c r="D19">
-        <v>-64.36827483332038</v>
+        <v>-63.43442351876485</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.006333333333333332</v>
       </c>
       <c r="B20">
-        <v>43.48042390697377</v>
+        <v>44.13248446230685</v>
       </c>
       <c r="C20">
-        <v>13.63974203371178</v>
+        <v>14.10225943307045</v>
       </c>
       <c r="D20">
-        <v>-57.12016594068555</v>
+        <v>-58.23474389537729</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.006666666666666665</v>
       </c>
       <c r="B21">
-        <v>48.81392717400645</v>
+        <v>48.0574175237747</v>
       </c>
       <c r="C21">
-        <v>6.519610954837869</v>
+        <v>6.777013459109142</v>
       </c>
       <c r="D21">
-        <v>-55.33353812884432</v>
+        <v>-54.83443098288384</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.006999999999999998</v>
       </c>
       <c r="B22">
-        <v>50.22684253482331</v>
+        <v>49.93791701859431</v>
       </c>
       <c r="C22">
-        <v>3.290511053245583</v>
+        <v>3.071767504649879</v>
       </c>
       <c r="D22">
-        <v>-53.51735358806889</v>
+        <v>-53.00968452324419</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.007333333333333331</v>
       </c>
       <c r="B23">
-        <v>51.57642316890146</v>
+        <v>52.5428912509965</v>
       </c>
       <c r="C23">
-        <v>1.099511020001763</v>
+        <v>0.8498301461035815</v>
       </c>
       <c r="D23">
-        <v>-52.67593418890321</v>
+        <v>-53.39272139710008</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.007666666666666665</v>
       </c>
       <c r="B24">
-        <v>52.89070997441838</v>
+        <v>53.34654397415146</v>
       </c>
       <c r="C24">
-        <v>-1.061410693818029</v>
+        <v>-0.8235025792672346</v>
       </c>
       <c r="D24">
-        <v>-51.82929928060035</v>
+        <v>-52.52304139488422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.007999999999999998</v>
       </c>
       <c r="B25">
-        <v>53.24141703196823</v>
+        <v>53.16152005728434</v>
       </c>
       <c r="C25">
-        <v>-3.26277484510036</v>
+        <v>-3.071415932199008</v>
       </c>
       <c r="D25">
-        <v>-49.97864218686787</v>
+        <v>-50.09010412508533</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.008333333333333331</v>
       </c>
       <c r="B26">
-        <v>55.6895657943634</v>
+        <v>54.98912024328613</v>
       </c>
       <c r="C26">
-        <v>-6.420741215542384</v>
+        <v>-6.734444242117654</v>
       </c>
       <c r="D26">
-        <v>-49.26882457882101</v>
+        <v>-48.25467600116848</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.008666666666666665</v>
       </c>
       <c r="B27">
-        <v>57.37779371578723</v>
+        <v>58.3455740070403</v>
       </c>
       <c r="C27">
-        <v>-13.87551748951083</v>
+        <v>-14.06821945252615</v>
       </c>
       <c r="D27">
-        <v>-43.50227622627641</v>
+        <v>-44.27735455451415</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.008999999999999998</v>
       </c>
       <c r="B28">
-        <v>63.17826815302573</v>
+        <v>63.37897175702988</v>
       </c>
       <c r="C28">
-        <v>-23.40476939807622</v>
+        <v>-23.07046835510737</v>
       </c>
       <c r="D28">
-        <v>-39.77349875494951</v>
+        <v>-40.30850340192251</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.009333333333333331</v>
       </c>
       <c r="B29">
-        <v>68.28351396496069</v>
+        <v>67.28932967924817</v>
       </c>
       <c r="C29">
-        <v>-30.5852415007342</v>
+        <v>-30.03508247930724</v>
       </c>
       <c r="D29">
-        <v>-37.6982724642265</v>
+        <v>-37.25424719994094</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.009666666666666664</v>
       </c>
       <c r="B30">
-        <v>68.58759264091401</v>
+        <v>69.0246100330582</v>
       </c>
       <c r="C30">
-        <v>-32.68873653971882</v>
+        <v>-33.285795579657</v>
       </c>
       <c r="D30">
-        <v>-35.89885610119519</v>
+        <v>-35.7388144534012</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.009999999999999997</v>
       </c>
       <c r="B31">
-        <v>69.91040219518121</v>
+        <v>70.85739766414662</v>
       </c>
       <c r="C31">
-        <v>-34.94752166817179</v>
+        <v>-35.45965049447319</v>
       </c>
       <c r="D31">
-        <v>-34.96288052700942</v>
+        <v>-35.39774716967342</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.01033333333333333</v>
       </c>
       <c r="B32">
-        <v>68.18110527408922</v>
+        <v>68.98587490086678</v>
       </c>
       <c r="C32">
-        <v>-35.6607686612186</v>
+        <v>-35.76322453400217</v>
       </c>
       <c r="D32">
-        <v>-32.52033661287062</v>
+        <v>-33.22265036686461</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.01066666666666666</v>
       </c>
       <c r="B33">
-        <v>67.61407325785822</v>
+        <v>67.15660804359547</v>
       </c>
       <c r="C33">
-        <v>-37.50110354085525</v>
+        <v>-37.17512160598767</v>
       </c>
       <c r="D33">
-        <v>-30.11296971700297</v>
+        <v>-29.9814864376078</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.011</v>
       </c>
       <c r="B34">
-        <v>64.41893022039052</v>
+        <v>63.36516787196337</v>
       </c>
       <c r="C34">
-        <v>-40.33898033870828</v>
+        <v>-40.14352743516602</v>
       </c>
       <c r="D34">
-        <v>-24.07994988168225</v>
+        <v>-23.22164043679735</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.01133333333333333</v>
       </c>
       <c r="B35">
-        <v>56.98976393632545</v>
+        <v>58.19991545445089</v>
       </c>
       <c r="C35">
-        <v>-43.3218953128655</v>
+        <v>-44.08001743536803</v>
       </c>
       <c r="D35">
-        <v>-13.66786862345995</v>
+        <v>-14.11989801908285</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.01166666666666666</v>
       </c>
       <c r="B36">
-        <v>55.0820765700571</v>
+        <v>54.80624146349142</v>
       </c>
       <c r="C36">
-        <v>-48.66180036283789</v>
+        <v>-48.00376994286764</v>
       </c>
       <c r="D36">
-        <v>-6.420276207219215</v>
+        <v>-6.802471520623783</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.012</v>
       </c>
       <c r="B37">
-        <v>53.4486509855181</v>
+        <v>53.01803425839442</v>
       </c>
       <c r="C37">
-        <v>-50.27277756627202</v>
+        <v>-49.96472729653243</v>
       </c>
       <c r="D37">
-        <v>-3.175873419246081</v>
+        <v>-3.053306961861985</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.01233333333333333</v>
       </c>
       <c r="B38">
-        <v>52.67460843259221</v>
+        <v>53.39147572949038</v>
       </c>
       <c r="C38">
-        <v>-51.53524438519263</v>
+        <v>-52.56258088041997</v>
       </c>
       <c r="D38">
-        <v>-1.139364047399585</v>
+        <v>-0.8288948490704087</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.01266666666666666</v>
       </c>
       <c r="B39">
-        <v>51.83844836126357</v>
+        <v>52.59902853572193</v>
       </c>
       <c r="C39">
-        <v>-52.79831845506985</v>
+        <v>-53.41953710428537</v>
       </c>
       <c r="D39">
-        <v>0.9598700938062699</v>
+        <v>0.820508568563433</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.01299999999999999</v>
       </c>
       <c r="B40">
-        <v>49.94230162833639</v>
+        <v>50.01243606099745</v>
       </c>
       <c r="C40">
-        <v>-53.17818233414374</v>
+        <v>-53.05654989020361</v>
       </c>
       <c r="D40">
-        <v>3.235880705807354</v>
+        <v>3.044113829206163</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.01333333333333333</v>
       </c>
       <c r="B41">
-        <v>49.42331163664468</v>
+        <v>48.17511995835466</v>
       </c>
       <c r="C41">
-        <v>-55.92784734827913</v>
+        <v>-54.9014172952711</v>
       </c>
       <c r="D41">
-        <v>6.504535711634452</v>
+        <v>6.726297336916431</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.01366666666666666</v>
       </c>
       <c r="B42">
-        <v>43.52978021793584</v>
+        <v>44.20371990962527</v>
       </c>
       <c r="C42">
-        <v>-57.5867029899878</v>
+        <v>-58.28157693571646</v>
       </c>
       <c r="D42">
-        <v>14.05692277205196</v>
+        <v>14.07785702609119</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.01399999999999999</v>
       </c>
       <c r="B43">
-        <v>39.78560337080998</v>
+        <v>40.21976987130086</v>
       </c>
       <c r="C43">
-        <v>-63.27543200582879</v>
+        <v>-63.26337102278524</v>
       </c>
       <c r="D43">
-        <v>23.48982863501881</v>
+        <v>23.04360115148438</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.01433333333333333</v>
       </c>
       <c r="B44">
-        <v>37.67850039906595</v>
+        <v>37.23462788662313</v>
       </c>
       <c r="C44">
-        <v>-68.24669530360296</v>
+        <v>-67.25877849887178</v>
       </c>
       <c r="D44">
-        <v>30.56819490453701</v>
+        <v>30.02415061224864</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.01466666666666666</v>
       </c>
       <c r="B45">
-        <v>35.73194275597724</v>
+        <v>35.7904155647918</v>
       </c>
       <c r="C45">
-        <v>-68.22823719648403</v>
+        <v>-69.12793284187961</v>
       </c>
       <c r="D45">
-        <v>32.49629444050679</v>
+        <v>33.33751727708782</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.01499999999999999</v>
       </c>
       <c r="B46">
-        <v>35.20032557889103</v>
+        <v>35.50121141120601</v>
       </c>
       <c r="C46">
-        <v>-70.34216841990758</v>
+        <v>-71.07499573116198</v>
       </c>
       <c r="D46">
-        <v>35.14184284101655</v>
+        <v>35.57378431995595</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.01533333333333333</v>
       </c>
       <c r="B47">
-        <v>32.81589170146156</v>
+        <v>33.29273816907619</v>
       </c>
       <c r="C47">
-        <v>-68.78808036306123</v>
+        <v>-69.16940831371878</v>
       </c>
       <c r="D47">
-        <v>35.97218866159967</v>
+        <v>35.87667014464259</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.01566666666666666</v>
       </c>
       <c r="B48">
-        <v>30.10319875942285</v>
+        <v>30.03525797080846</v>
       </c>
       <c r="C48">
-        <v>-67.67814291845966</v>
+        <v>-67.30333813022044</v>
       </c>
       <c r="D48">
-        <v>37.5749441590368</v>
+        <v>37.26808015941198</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.01599999999999999</v>
       </c>
       <c r="B49">
-        <v>23.93615964863157</v>
+        <v>23.15835673706191</v>
       </c>
       <c r="C49">
-        <v>-64.17549701191291</v>
+        <v>-63.27128735888164</v>
       </c>
       <c r="D49">
-        <v>40.23933736328134</v>
+        <v>40.11293062181973</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.01633333333333333</v>
       </c>
       <c r="B50">
-        <v>13.48554646793544</v>
+        <v>14.07769560271339</v>
       </c>
       <c r="C50">
-        <v>-56.83024243312981</v>
+        <v>-58.07189458512302</v>
       </c>
       <c r="D50">
-        <v>43.34469596519437</v>
+        <v>43.99419898240963</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.01666666666666666</v>
       </c>
       <c r="B51">
-        <v>6.389480597668722</v>
+        <v>6.785588172216059</v>
       </c>
       <c r="C51">
-        <v>-55.03552051055179</v>
+        <v>-54.74126679417915</v>
       </c>
       <c r="D51">
-        <v>48.64603991288307</v>
+        <v>47.95567862196309</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.017</v>
       </c>
       <c r="B52">
-        <v>3.224222775375653</v>
+        <v>3.034162709666388</v>
       </c>
       <c r="C52">
-        <v>-53.44369485136004</v>
+        <v>-52.91640230316241</v>
       </c>
       <c r="D52">
-        <v>50.21947207598439</v>
+        <v>49.88223959349603</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.01733333333333333</v>
       </c>
       <c r="B53">
-        <v>1.204071653991349</v>
+        <v>0.8387654031440093</v>
       </c>
       <c r="C53">
-        <v>-52.68417447060615</v>
+        <v>-53.36964670280767</v>
       </c>
       <c r="D53">
-        <v>51.4801028166148</v>
+        <v>52.53088129966366</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.01766666666666667</v>
       </c>
       <c r="B54">
-        <v>-0.929721622977965</v>
+        <v>-0.7965521574936076</v>
       </c>
       <c r="C54">
-        <v>-51.71352598882639</v>
+        <v>-52.5839398217568</v>
       </c>
       <c r="D54">
-        <v>52.64324761180436</v>
+        <v>53.38049197925041</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.018</v>
       </c>
       <c r="B55">
-        <v>-3.279868613841748</v>
+        <v>-3.028402319991201</v>
       </c>
       <c r="C55">
-        <v>-49.83808701759217</v>
+        <v>-50.06833504224389</v>
       </c>
       <c r="D55">
-        <v>53.11795563143392</v>
+        <v>53.0967373622351</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.01833333333333334</v>
       </c>
       <c r="B56">
-        <v>-6.583657875391459</v>
+        <v>-6.734145727256767</v>
       </c>
       <c r="C56">
-        <v>-49.2539094777574</v>
+        <v>-48.16076951019344</v>
       </c>
       <c r="D56">
-        <v>55.83756735314886</v>
+        <v>54.89491523745021</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.01866666666666667</v>
       </c>
       <c r="B57">
-        <v>-14.11035611626414</v>
+        <v>-14.08844646812388</v>
       </c>
       <c r="C57">
-        <v>-43.51448144465272</v>
+        <v>-44.13103870039839</v>
       </c>
       <c r="D57">
-        <v>57.62483756091686</v>
+        <v>58.21948516852227</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.01900000000000001</v>
       </c>
       <c r="B58">
-        <v>-23.37793028248485</v>
+        <v>-23.00821060446615</v>
       </c>
       <c r="C58">
-        <v>-39.71368734819261</v>
+        <v>-40.16525693732327</v>
       </c>
       <c r="D58">
-        <v>63.09161763067745</v>
+        <v>63.17346754178942</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.01933333333333334</v>
       </c>
       <c r="B59">
-        <v>-30.4657968648274</v>
+        <v>-29.96404676378344</v>
       </c>
       <c r="C59">
-        <v>-37.54537898364937</v>
+        <v>-37.21653787908234</v>
       </c>
       <c r="D59">
-        <v>68.01117584847677</v>
+        <v>67.18058464286577</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.01966666666666668</v>
       </c>
       <c r="B60">
-        <v>-32.59548152854023</v>
+        <v>-33.24281533004039</v>
       </c>
       <c r="C60">
-        <v>-35.75909799613038</v>
+        <v>-35.750164039823</v>
       </c>
       <c r="D60">
-        <v>68.35457952467061</v>
+        <v>68.99297936986338</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.02000000000000001</v>
       </c>
       <c r="B61">
-        <v>-34.96162631182635</v>
+        <v>-35.47472339096363</v>
       </c>
       <c r="C61">
-        <v>-35.09625798673584</v>
+        <v>-35.43147851304319</v>
       </c>
       <c r="D61">
-        <v>70.05788429856219</v>
+        <v>70.90620190400682</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.02033333333333335</v>
       </c>
       <c r="B62">
-        <v>-35.76052633512906</v>
+        <v>-35.76863920934977</v>
       </c>
       <c r="C62">
-        <v>-32.84339385291938</v>
+        <v>-33.27911963837326</v>
       </c>
       <c r="D62">
-        <v>68.60392018804845</v>
+        <v>69.04775884772303</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.02066666666666668</v>
       </c>
       <c r="B63">
-        <v>-37.57639357138087</v>
+        <v>-37.16468990709782</v>
       </c>
       <c r="C63">
-        <v>-30.23065800980541</v>
+        <v>-30.05603013977755</v>
       </c>
       <c r="D63">
-        <v>67.80705158118627</v>
+        <v>67.22072004687539</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.02100000000000002</v>
       </c>
       <c r="B64">
-        <v>-40.401451118095</v>
+        <v>-40.176597189507</v>
       </c>
       <c r="C64">
-        <v>-23.95444611133565</v>
+        <v>-23.24990571208344</v>
       </c>
       <c r="D64">
-        <v>64.35589722943064</v>
+        <v>63.42650290159044</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.02133333333333335</v>
       </c>
       <c r="B65">
-        <v>-43.4872927758887</v>
+        <v>-44.13822501389849</v>
       </c>
       <c r="C65">
-        <v>-13.62737285582532</v>
+        <v>-14.09007467746818</v>
       </c>
       <c r="D65">
-        <v>57.11466563171403</v>
+        <v>58.22829969136667</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.02166666666666668</v>
       </c>
       <c r="B66">
-        <v>-48.82022047426153</v>
+        <v>-48.06228930670616</v>
       </c>
       <c r="C66">
-        <v>-6.512082124161404</v>
+        <v>-6.769039356566418</v>
       </c>
       <c r="D66">
-        <v>55.33230259842293</v>
+        <v>54.83132866327259</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.02200000000000002</v>
       </c>
       <c r="B67">
-        <v>-50.22659884885138</v>
+        <v>-49.94000797418281</v>
       </c>
       <c r="C67">
-        <v>-3.287614533143415</v>
+        <v>-3.068019391128177</v>
       </c>
       <c r="D67">
-        <v>53.51421338199479</v>
+        <v>53.00802736531098</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.02233333333333335</v>
       </c>
       <c r="B68">
-        <v>-51.57987084767916</v>
+        <v>-52.5465602948198</v>
       </c>
       <c r="C68">
-        <v>-1.096565839924647</v>
+        <v>-0.8472910091241594</v>
       </c>
       <c r="D68">
-        <v>52.6764366876038</v>
+        <v>53.39385130394396</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.02266666666666669</v>
       </c>
       <c r="B69">
-        <v>-52.89065826060349</v>
+        <v>-53.34560613536012</v>
       </c>
       <c r="C69">
-        <v>1.064612006808627</v>
+        <v>0.8262123418918002</v>
       </c>
       <c r="D69">
-        <v>51.82604625379486</v>
+        <v>52.51939379346832</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.02300000000000002</v>
       </c>
       <c r="B70">
-        <v>-53.24303346870731</v>
+        <v>-53.16305608724001</v>
       </c>
       <c r="C70">
-        <v>3.26653410735039</v>
+        <v>3.075157840273722</v>
       </c>
       <c r="D70">
-        <v>49.97649936135692</v>
+        <v>50.08789824696629</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.02333333333333336</v>
       </c>
       <c r="B71">
-        <v>-55.6933993324085</v>
+        <v>-54.99258456414606</v>
       </c>
       <c r="C71">
-        <v>6.427750553256592</v>
+        <v>6.742367095221026</v>
       </c>
       <c r="D71">
-        <v>49.2656487791519</v>
+        <v>48.25021746892503</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.02366666666666669</v>
       </c>
       <c r="B72">
-        <v>-57.38097707774377</v>
+        <v>-58.3518071675645</v>
       </c>
       <c r="C72">
-        <v>13.88776698065267</v>
+        <v>14.08035969151699</v>
       </c>
       <c r="D72">
-        <v>43.4932100970911</v>
+        <v>44.27144747604752</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.02400000000000003</v>
       </c>
       <c r="B73">
-        <v>-63.18918272758593</v>
+        <v>-63.3868429642276</v>
       </c>
       <c r="C73">
-        <v>23.41894182660898</v>
+        <v>23.08373396949587</v>
       </c>
       <c r="D73">
-        <v>39.77024090097694</v>
+        <v>40.30310899473173</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.02433333333333336</v>
       </c>
       <c r="B74">
-        <v>-68.28593709990801</v>
+        <v>-67.29209330394747</v>
       </c>
       <c r="C74">
-        <v>30.59058551923233</v>
+        <v>30.04120226619056</v>
       </c>
       <c r="D74">
-        <v>37.69535158067568</v>
+        <v>37.25089103775691</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.0246666666666667</v>
       </c>
       <c r="B75">
-        <v>-68.58886589093783</v>
+        <v>-69.02791125467118</v>
       </c>
       <c r="C75">
-        <v>32.69191305198764</v>
+        <v>33.29003231129258</v>
       </c>
       <c r="D75">
-        <v>35.8969528389502</v>
+        <v>35.73787894337859</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.02500000000000003</v>
       </c>
       <c r="B76">
-        <v>-69.910529929267</v>
+        <v>-70.85763846489225</v>
       </c>
       <c r="C76">
-        <v>34.94972945169681</v>
+        <v>35.46111555839622</v>
       </c>
       <c r="D76">
-        <v>34.96080047757019</v>
+        <v>35.39652290649602</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.02533333333333337</v>
       </c>
       <c r="B77">
-        <v>-68.17858384459279</v>
+        <v>-68.98227764711996</v>
       </c>
       <c r="C77">
-        <v>35.66197267732604</v>
+        <v>35.76395478207557</v>
       </c>
       <c r="D77">
-        <v>32.51661116726676</v>
+        <v>33.21832286504439</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.0256666666666667</v>
       </c>
       <c r="B78">
-        <v>-67.61467777779797</v>
+        <v>-67.15401473063008</v>
       </c>
       <c r="C78">
-        <v>37.50520139389435</v>
+        <v>37.17838980160506</v>
       </c>
       <c r="D78">
-        <v>30.10947638390361</v>
+        <v>29.97562492902502</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.02600000000000004</v>
       </c>
       <c r="B79">
-        <v>-64.4073011547214</v>
+        <v>-63.35705454604266</v>
       </c>
       <c r="C79">
-        <v>40.34260866918038</v>
+        <v>40.14875959709165</v>
       </c>
       <c r="D79">
-        <v>24.06469248554102</v>
+        <v>23.20829494895101</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.02633333333333337</v>
       </c>
       <c r="B80">
-        <v>-56.98373104944442</v>
+        <v>-58.19322301583719</v>
       </c>
       <c r="C80">
-        <v>43.32862235224638</v>
+        <v>44.08547443958884</v>
       </c>
       <c r="D80">
-        <v>13.65510869719804</v>
+        <v>14.10774857624836</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.02666666666666671</v>
       </c>
       <c r="B81">
-        <v>-55.08108994631414</v>
+        <v>-54.80304649331673</v>
       </c>
       <c r="C81">
-        <v>48.66848132687012</v>
+        <v>48.00865927039013</v>
       </c>
       <c r="D81">
-        <v>6.412608619444022</v>
+        <v>6.794387222926609</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.02700000000000004</v>
       </c>
       <c r="B82">
-        <v>-53.44530735883986</v>
+        <v>-53.01684740563623</v>
       </c>
       <c r="C82">
-        <v>50.27222698913495</v>
+        <v>49.96730434747636</v>
       </c>
       <c r="D82">
-        <v>3.173080369704916</v>
+        <v>3.04954305815987</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.02733333333333338</v>
       </c>
       <c r="B83">
-        <v>-52.67544973156316</v>
+        <v>-53.39275278543047</v>
       </c>
       <c r="C83">
-        <v>51.53880889166113</v>
+        <v>52.56639746720873</v>
       </c>
       <c r="D83">
-        <v>1.136640839902032</v>
+        <v>0.8263553182217436</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.02766666666666671</v>
       </c>
       <c r="B84">
-        <v>-51.83507351613869</v>
+        <v>-52.59502855275048</v>
       </c>
       <c r="C84">
-        <v>52.79812108655749</v>
+        <v>53.41817705462212</v>
       </c>
       <c r="D84">
-        <v>-0.9630475704187909</v>
+        <v>-0.8231485018716391</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.02800000000000005</v>
       </c>
       <c r="B85">
-        <v>-49.94031062401028</v>
+        <v>-50.0098385947941</v>
       </c>
       <c r="C85">
-        <v>53.1801393153319</v>
+        <v>53.05763481996168</v>
       </c>
       <c r="D85">
-        <v>-3.239828691321623</v>
+        <v>-3.047796225167586</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.02833333333333338</v>
       </c>
       <c r="B86">
-        <v>-49.42006445146903</v>
+        <v>-48.17084684153703</v>
       </c>
       <c r="C86">
-        <v>55.93170665690386</v>
+        <v>54.9050861559564</v>
       </c>
       <c r="D86">
-        <v>-6.51164220543482</v>
+        <v>-6.734239314419369</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.02866666666666672</v>
       </c>
       <c r="B87">
-        <v>-43.52096743378902</v>
+        <v>-44.19786281877204</v>
       </c>
       <c r="C87">
-        <v>57.59036846038099</v>
+        <v>58.28799945180027</v>
       </c>
       <c r="D87">
-        <v>-14.06940102659196</v>
+        <v>-14.09013663302823</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.02900000000000005</v>
       </c>
       <c r="B88">
-        <v>-39.78216870083967</v>
+        <v>-40.214513871375</v>
       </c>
       <c r="C88">
-        <v>63.28592962201692</v>
+        <v>63.27127315476156</v>
       </c>
       <c r="D88">
-        <v>-23.50376092117725</v>
+        <v>-23.05675928338656</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.02933333333333338</v>
       </c>
       <c r="B89">
-        <v>-37.67532198893021</v>
+        <v>-37.23114809165325</v>
       </c>
       <c r="C89">
-        <v>68.248522410428</v>
+        <v>67.26131217629026</v>
       </c>
       <c r="D89">
-        <v>-30.5732004214978</v>
+        <v>-30.03016408463701</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.02966666666666672</v>
       </c>
       <c r="B90">
-        <v>-35.73039999350044</v>
+        <v>-35.7898629078482</v>
       </c>
       <c r="C90">
-        <v>68.23017778363517</v>
+        <v>69.13191479509703</v>
       </c>
       <c r="D90">
-        <v>-32.49977779013473</v>
+        <v>-33.34205188724883</v>
       </c>
     </row>
   </sheetData>
